--- a/ru/downloads/data-excel/7.3.1.2.xlsx
+++ b/ru/downloads/data-excel/7.3.1.2.xlsx
@@ -689,7 +689,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:Q11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -698,7 +698,7 @@
     <col min="1" max="3" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -710,7 +710,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>6</v>
       </c>
@@ -721,14 +721,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -777,8 +778,11 @@
       <c r="P4" s="19">
         <v>2019</v>
       </c>
+      <c r="Q4" s="19">
+        <v>2020</v>
+      </c>
     </row>
-    <row r="5" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -827,8 +831,11 @@
       <c r="P5" s="20">
         <v>24.41</v>
       </c>
+      <c r="Q5" s="20">
+        <v>25.6</v>
+      </c>
     </row>
-    <row r="6" spans="1:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -877,8 +884,11 @@
       <c r="P6" s="20">
         <v>14.32</v>
       </c>
+      <c r="Q6" s="20">
+        <v>13.073527219449954</v>
+      </c>
     </row>
-    <row r="7" spans="1:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -927,8 +937,11 @@
       <c r="P7" s="20">
         <v>23.61</v>
       </c>
+      <c r="Q7" s="20">
+        <v>21.941290626870046</v>
+      </c>
     </row>
-    <row r="8" spans="1:16" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -977,8 +990,11 @@
       <c r="P8" s="21">
         <v>200.5</v>
       </c>
+      <c r="Q8" s="21">
+        <v>196.6</v>
+      </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -993,10 +1009,10 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" s="22"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>

--- a/ru/downloads/data-excel/7.3.1.2.xlsx
+++ b/ru/downloads/data-excel/7.3.1.2.xlsx
@@ -316,7 +316,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -367,18 +367,21 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -689,16 +692,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:R11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="3" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -710,26 +715,27 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
       <c r="O3" s="9"/>
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
+      <c r="R3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -781,61 +787,67 @@
       <c r="Q4" s="19">
         <v>2020</v>
       </c>
+      <c r="R4" s="19">
+        <v>2021</v>
+      </c>
     </row>
-    <row r="5" spans="1:17" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="20">
+      <c r="D5" s="23">
         <v>87.7</v>
       </c>
-      <c r="E5" s="20">
+      <c r="E5" s="23">
         <v>59.8</v>
       </c>
-      <c r="F5" s="20">
+      <c r="F5" s="23">
         <v>49.9</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="23">
         <v>47.7</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="23">
         <v>43.3</v>
       </c>
-      <c r="I5" s="20">
+      <c r="I5" s="23">
         <v>43.7</v>
       </c>
-      <c r="J5" s="20">
+      <c r="J5" s="23">
         <v>38.5</v>
       </c>
-      <c r="K5" s="20">
+      <c r="K5" s="23">
         <v>36.9</v>
       </c>
-      <c r="L5" s="20">
+      <c r="L5" s="23">
         <v>31.5</v>
       </c>
-      <c r="M5" s="20">
+      <c r="M5" s="23">
         <v>27.9</v>
       </c>
-      <c r="N5" s="20">
+      <c r="N5" s="23">
         <v>26.9</v>
       </c>
-      <c r="O5" s="20">
+      <c r="O5" s="23">
         <v>26.3</v>
       </c>
-      <c r="P5" s="20">
+      <c r="P5" s="23">
         <v>24.41</v>
       </c>
-      <c r="Q5" s="20">
+      <c r="Q5" s="23">
         <v>25.6</v>
       </c>
+      <c r="R5" s="23">
+        <v>20.461775421944708</v>
+      </c>
     </row>
-    <row r="6" spans="1:17" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -845,50 +857,53 @@
       <c r="C6" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="20">
+      <c r="D6" s="23">
         <v>20.5</v>
       </c>
-      <c r="E6" s="20">
+      <c r="E6" s="23">
         <v>15</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="23">
         <v>15.6</v>
       </c>
-      <c r="G6" s="20">
+      <c r="G6" s="23">
         <v>14.3</v>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="23">
         <v>14.3</v>
       </c>
-      <c r="I6" s="20">
+      <c r="I6" s="23">
         <v>14.7</v>
       </c>
-      <c r="J6" s="20">
+      <c r="J6" s="23">
         <v>14.9</v>
       </c>
-      <c r="K6" s="20">
+      <c r="K6" s="23">
         <v>12.9</v>
       </c>
-      <c r="L6" s="20">
+      <c r="L6" s="23">
         <v>16.100000000000001</v>
       </c>
-      <c r="M6" s="20">
+      <c r="M6" s="23">
         <v>15.8</v>
       </c>
-      <c r="N6" s="20">
+      <c r="N6" s="23">
         <v>16.3</v>
       </c>
-      <c r="O6" s="20">
+      <c r="O6" s="23">
         <v>15.8</v>
       </c>
-      <c r="P6" s="20">
+      <c r="P6" s="23">
         <v>14.32</v>
       </c>
-      <c r="Q6" s="20">
+      <c r="Q6" s="23">
         <v>13.073527219449954</v>
       </c>
+      <c r="R6" s="23">
+        <v>10.464183282203864</v>
+      </c>
     </row>
-    <row r="7" spans="1:17" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -898,50 +913,53 @@
       <c r="C7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="23">
         <v>71.8</v>
       </c>
-      <c r="E7" s="20">
+      <c r="E7" s="23">
         <v>46</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="23">
         <v>40.1</v>
       </c>
-      <c r="G7" s="20">
+      <c r="G7" s="23">
         <v>33.1</v>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="23">
         <v>30</v>
       </c>
-      <c r="I7" s="20">
+      <c r="I7" s="23">
         <v>41.2</v>
       </c>
-      <c r="J7" s="20">
+      <c r="J7" s="23">
         <v>35</v>
       </c>
-      <c r="K7" s="20">
+      <c r="K7" s="23">
         <v>43</v>
       </c>
-      <c r="L7" s="20">
+      <c r="L7" s="23">
         <v>31.8</v>
       </c>
-      <c r="M7" s="20">
+      <c r="M7" s="23">
         <v>26.3</v>
       </c>
-      <c r="N7" s="20">
+      <c r="N7" s="23">
         <v>25</v>
       </c>
-      <c r="O7" s="20">
+      <c r="O7" s="23">
         <v>25.5</v>
       </c>
-      <c r="P7" s="20">
+      <c r="P7" s="23">
         <v>23.61</v>
       </c>
-      <c r="Q7" s="20">
+      <c r="Q7" s="23">
         <v>21.941290626870046</v>
       </c>
+      <c r="R7" s="23">
+        <v>21.69437772849707</v>
+      </c>
     </row>
-    <row r="8" spans="1:17" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -951,50 +969,53 @@
       <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="24">
         <v>158.9</v>
       </c>
-      <c r="E8" s="21">
+      <c r="E8" s="24">
         <v>146.9</v>
       </c>
-      <c r="F8" s="21">
+      <c r="F8" s="24">
         <v>168.8</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="24">
         <v>180.5</v>
       </c>
-      <c r="H8" s="21">
+      <c r="H8" s="24">
         <v>174.7</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="24">
         <v>155.19999999999999</v>
       </c>
-      <c r="J8" s="21">
+      <c r="J8" s="24">
         <v>160.30000000000001</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="24">
         <v>130.9</v>
       </c>
-      <c r="L8" s="21">
+      <c r="L8" s="24">
         <v>207.6</v>
       </c>
-      <c r="M8" s="21">
+      <c r="M8" s="24">
         <v>248.3</v>
       </c>
-      <c r="N8" s="21">
+      <c r="N8" s="24">
         <v>260.3</v>
       </c>
-      <c r="O8" s="21">
+      <c r="O8" s="24">
         <v>202.9</v>
       </c>
-      <c r="P8" s="21">
+      <c r="P8" s="24">
         <v>200.5</v>
       </c>
-      <c r="Q8" s="21">
+      <c r="Q8" s="24">
         <v>196.6</v>
       </c>
+      <c r="R8" s="25">
+        <v>206.4</v>
+      </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -1009,10 +1030,10 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>

--- a/ru/downloads/data-excel/7.3.1.2.xlsx
+++ b/ru/downloads/data-excel/7.3.1.2.xlsx
@@ -692,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:S11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="Q15" sqref="Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,7 +703,7 @@
     <col min="1" max="3" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>13</v>
       </c>
@@ -715,7 +715,7 @@
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
         <v>6</v>
       </c>
@@ -726,7 +726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -734,8 +734,9 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
       <c r="R3" s="9"/>
+      <c r="S3" s="9"/>
     </row>
-    <row r="4" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -790,8 +791,11 @@
       <c r="R4" s="19">
         <v>2021</v>
       </c>
+      <c r="S4" s="19">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:18" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
@@ -838,16 +842,19 @@
         <v>26.3</v>
       </c>
       <c r="P5" s="23">
-        <v>24.41</v>
+        <v>23.111083656771282</v>
       </c>
       <c r="Q5" s="23">
-        <v>25.6</v>
+        <v>24.08077930418019</v>
       </c>
       <c r="R5" s="23">
-        <v>20.461775421944708</v>
+        <v>19.336931533747723</v>
+      </c>
+      <c r="S5" s="23">
+        <v>13.600365850576139</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -894,16 +901,19 @@
         <v>15.8</v>
       </c>
       <c r="P6" s="23">
-        <v>14.32</v>
+        <v>14.322631450320875</v>
       </c>
       <c r="Q6" s="23">
-        <v>13.073527219449954</v>
+        <v>13.073459110725862</v>
       </c>
       <c r="R6" s="23">
-        <v>10.464183282203864</v>
+        <v>10.464141365743002</v>
+      </c>
+      <c r="S6" s="23">
+        <v>9.2742414863791556</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -950,7 +960,7 @@
         <v>25.5</v>
       </c>
       <c r="P7" s="23">
-        <v>23.61</v>
+        <v>23.612622725489956</v>
       </c>
       <c r="Q7" s="23">
         <v>21.941290626870046</v>
@@ -958,8 +968,11 @@
       <c r="R7" s="23">
         <v>21.69437772849707</v>
       </c>
+      <c r="S7" s="23">
+        <v>17.303523954725925</v>
+      </c>
     </row>
-    <row r="8" spans="1:18" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
@@ -1014,8 +1027,11 @@
       <c r="R8" s="25">
         <v>206.4</v>
       </c>
+      <c r="S8" s="25">
+        <v>205.5</v>
+      </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="D9" s="18"/>
       <c r="E9" s="18"/>
       <c r="F9" s="18"/>
@@ -1030,10 +1046,10 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B10" s="20"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>

--- a/ru/downloads/data-excel/7.3.1.2.xlsx
+++ b/ru/downloads/data-excel/7.3.1.2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <r>
       <t xml:space="preserve">Электроемкость ВВП </t>
@@ -121,9 +121,52 @@
     <t>Промышленность, тыс. кВт.ч на 1 млн. сомов объема производства отрасли</t>
   </si>
   <si>
-    <t xml:space="preserve">7.3.1.2 Электроемкость ВВП                   </t>
-  </si>
-  <si>
+    <t>Agriculture, forestry and fish farming, thousand kW.h per 1 million soms of the industry's production volume</t>
+  </si>
+  <si>
+    <t>Industry, thousand kW.h per 1 million soms of the industry's production volume</t>
+  </si>
+  <si>
+    <t>Electricity production at small HPPs, million kWh</t>
+  </si>
+  <si>
+    <t>Айыл чарба, токой чарбасы жана балык өстүрүү, өнөр жай өндүрүшүнүн көлөмү саатына 1 миллион сомго миң кВт.</t>
+  </si>
+  <si>
+    <t>Өнөр жай өндүрүшүнүн көлөмүнүн өсүүсү саатына 1 миллион сомго миң кВт.</t>
+  </si>
+  <si>
+    <t>Электр энергиясы чакан ГЭСтерде өндүрүү,саатына  млн. кВт.ч</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.3.1.2 ИДПнын электр сыйымдуулугу </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.3.1.2 Электроемкость ВВП </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <r>
       <rPr>
         <b/>
@@ -131,38 +174,92 @@
         <rFont val="Times New Roman Cyr"/>
         <charset val="204"/>
       </rPr>
-      <t>7.3.1.2 ИДПнын электр сыйымдуулугу</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
+      <t xml:space="preserve">                  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7.3.1.2 Electric capacity of GDP </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
         <sz val="10"/>
         <rFont val="Times New Roman Cyr"/>
         <charset val="204"/>
       </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <t>7.3.1.2 GDP electric intensity</t>
-  </si>
-  <si>
-    <t>Agriculture, forestry and fish farming, thousand kW.h per 1 million soms of the industry's production volume</t>
-  </si>
-  <si>
-    <t>Industry, thousand kW.h per 1 million soms of the industry's production volume</t>
-  </si>
-  <si>
-    <t>Electricity production at small HPPs, million kWh</t>
-  </si>
-  <si>
-    <t>Айыл чарба, токой чарбасы жана балык өстүрүү, өнөр жай өндүрүшүнүн көлөмү саатына 1 миллион сомго миң кВт.</t>
-  </si>
-  <si>
-    <t>Өнөр жай өндүрүшүнүн көлөмүнүн өсүүсү саатына 1 миллион сомго миң кВт.</t>
-  </si>
-  <si>
-    <t>Электр энергиясы чакан ГЭСтерде өндүрүү,саатына  млн. кВт.ч</t>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2019-жылдан баштап маалыматтар, 2008 жылдагы Улуттук Эсептер Тутумунун эл аралык стандарттарына ылайык эсептелген </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Данные с 2019 года рассчитаны по международному стандарту Системы Национальных Счетов 2008 года</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Data from 2019 are calculated according to the international standard of the System of National Accounts 2008</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -172,7 +269,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -236,19 +333,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Times New Roman Cyr"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -269,6 +353,52 @@
       <sz val="8"/>
       <name val="Times New Roman Cyr"/>
       <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Times New Roman Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,15 +438,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous" vertical="center" wrapText="1"/>
@@ -330,19 +462,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -367,8 +492,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -383,12 +508,31 @@
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="7" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal 17" xfId="3"/>
     <cellStyle name="Normal 2" xfId="5"/>
+    <cellStyle name="Normal_GDP1" xfId="7"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1"/>
+    <cellStyle name="Обычный 4" xfId="6"/>
     <cellStyle name="Обычный 6" xfId="2"/>
     <cellStyle name="Обычный 7" xfId="4"/>
   </cellStyles>
@@ -692,51 +836,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S11"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q15" sqref="Q15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="3" width="36.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>14</v>
+    <row r="1" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A1" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="26" t="s">
+        <v>20</v>
       </c>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:20">
+      <c r="A2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="O3" s="9"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
-      <c r="R3" s="9"/>
-      <c r="S3" s="9"/>
+    <row r="3" spans="1:20" s="24" customFormat="1" ht="12.75" thickBot="1">
+      <c r="A3" s="23"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" ht="15.75" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -746,326 +889,350 @@
       <c r="C4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="16">
+      <c r="D4" s="13">
         <v>2007</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="13">
         <v>2008</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="13">
         <v>2009</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="13">
         <v>2010</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="13">
         <v>2011</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="14">
         <v>2012</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="14">
         <v>2013</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="14">
         <v>2014</v>
       </c>
-      <c r="L4" s="16">
+      <c r="L4" s="13">
         <v>2015</v>
       </c>
-      <c r="M4" s="17">
+      <c r="M4" s="14">
         <v>2016</v>
       </c>
-      <c r="N4" s="17">
+      <c r="N4" s="14">
         <v>2017</v>
       </c>
-      <c r="O4" s="19">
+      <c r="O4" s="16">
         <v>2018</v>
       </c>
-      <c r="P4" s="19">
+      <c r="P4" s="16">
         <v>2019</v>
       </c>
-      <c r="Q4" s="19">
+      <c r="Q4" s="16">
         <v>2020</v>
       </c>
-      <c r="R4" s="19">
+      <c r="R4" s="16">
         <v>2021</v>
       </c>
-      <c r="S4" s="19">
+      <c r="S4" s="16">
         <v>2022</v>
       </c>
+      <c r="T4" s="16">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:20" ht="21.75" customHeight="1">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="20">
         <v>87.7</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E5" s="20">
         <v>59.8</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="20">
         <v>49.9</v>
       </c>
-      <c r="G5" s="23">
+      <c r="G5" s="20">
         <v>47.7</v>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="20">
         <v>43.3</v>
       </c>
-      <c r="I5" s="23">
+      <c r="I5" s="20">
         <v>43.7</v>
       </c>
-      <c r="J5" s="23">
+      <c r="J5" s="20">
         <v>38.5</v>
       </c>
-      <c r="K5" s="23">
+      <c r="K5" s="20">
         <v>36.9</v>
       </c>
-      <c r="L5" s="23">
+      <c r="L5" s="20">
         <v>31.5</v>
       </c>
-      <c r="M5" s="23">
+      <c r="M5" s="20">
         <v>27.9</v>
       </c>
-      <c r="N5" s="23">
+      <c r="N5" s="20">
         <v>26.9</v>
       </c>
-      <c r="O5" s="23">
+      <c r="O5" s="20">
         <v>26.3</v>
       </c>
-      <c r="P5" s="23">
+      <c r="P5" s="20">
         <v>23.111083656771282</v>
       </c>
-      <c r="Q5" s="23">
+      <c r="Q5" s="20">
         <v>24.08077930418019</v>
       </c>
-      <c r="R5" s="23">
+      <c r="R5" s="20">
         <v>19.336931533747723</v>
       </c>
-      <c r="S5" s="23">
+      <c r="S5" s="20">
         <v>13.600365850576139</v>
       </c>
+      <c r="T5" s="20">
+        <v>10.376388024562692</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="7" t="s">
+    <row r="6" spans="1:20" ht="39.75" customHeight="1">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="20">
+        <v>20.5</v>
+      </c>
+      <c r="E6" s="20">
         <v>15</v>
       </c>
-      <c r="D6" s="23">
-        <v>20.5</v>
-      </c>
-      <c r="E6" s="23">
-        <v>15</v>
-      </c>
-      <c r="F6" s="23">
+      <c r="F6" s="20">
         <v>15.6</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="20">
         <v>14.3</v>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="20">
         <v>14.3</v>
       </c>
-      <c r="I6" s="23">
+      <c r="I6" s="20">
         <v>14.7</v>
       </c>
-      <c r="J6" s="23">
+      <c r="J6" s="20">
         <v>14.9</v>
       </c>
-      <c r="K6" s="23">
+      <c r="K6" s="20">
         <v>12.9</v>
       </c>
-      <c r="L6" s="23">
+      <c r="L6" s="20">
         <v>16.100000000000001</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="20">
         <v>15.8</v>
       </c>
-      <c r="N6" s="23">
+      <c r="N6" s="20">
         <v>16.3</v>
       </c>
-      <c r="O6" s="23">
+      <c r="O6" s="20">
         <v>15.8</v>
       </c>
-      <c r="P6" s="23">
+      <c r="P6" s="20">
         <v>14.322631450320875</v>
       </c>
-      <c r="Q6" s="23">
+      <c r="Q6" s="20">
         <v>13.073459110725862</v>
       </c>
-      <c r="R6" s="23">
+      <c r="R6" s="20">
         <v>10.464141365743002</v>
       </c>
-      <c r="S6" s="23">
+      <c r="S6" s="20">
         <v>9.2742414863791556</v>
       </c>
+      <c r="T6" s="20">
+        <v>9.6060616848577247</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="7" spans="1:20" ht="27" customHeight="1">
+      <c r="A7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="23">
+      <c r="C7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="20">
         <v>71.8</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="20">
         <v>46</v>
       </c>
-      <c r="F7" s="23">
+      <c r="F7" s="20">
         <v>40.1</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="20">
         <v>33.1</v>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="20">
         <v>30</v>
       </c>
-      <c r="I7" s="23">
+      <c r="I7" s="20">
         <v>41.2</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7" s="20">
         <v>35</v>
       </c>
-      <c r="K7" s="23">
+      <c r="K7" s="20">
         <v>43</v>
       </c>
-      <c r="L7" s="23">
+      <c r="L7" s="20">
         <v>31.8</v>
       </c>
-      <c r="M7" s="23">
+      <c r="M7" s="20">
         <v>26.3</v>
       </c>
-      <c r="N7" s="23">
+      <c r="N7" s="20">
         <v>25</v>
       </c>
-      <c r="O7" s="23">
+      <c r="O7" s="20">
         <v>25.5</v>
       </c>
-      <c r="P7" s="23">
+      <c r="P7" s="20">
         <v>23.612622725489956</v>
       </c>
-      <c r="Q7" s="23">
+      <c r="Q7" s="20">
         <v>21.941290626870046</v>
       </c>
-      <c r="R7" s="23">
+      <c r="R7" s="20">
         <v>21.69437772849707</v>
       </c>
-      <c r="S7" s="23">
+      <c r="S7" s="20">
         <v>17.303523954725925</v>
       </c>
+      <c r="T7" s="20">
+        <v>17.548015954891792</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" ht="30.75" customHeight="1" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="24">
+      <c r="C8" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="21">
         <v>158.9</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="21">
         <v>146.9</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="21">
         <v>168.8</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="21">
         <v>180.5</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="21">
         <v>174.7</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="21">
         <v>155.19999999999999</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="21">
         <v>160.30000000000001</v>
       </c>
-      <c r="K8" s="24">
+      <c r="K8" s="21">
         <v>130.9</v>
       </c>
-      <c r="L8" s="24">
+      <c r="L8" s="21">
         <v>207.6</v>
       </c>
-      <c r="M8" s="24">
+      <c r="M8" s="21">
         <v>248.3</v>
       </c>
-      <c r="N8" s="24">
+      <c r="N8" s="21">
         <v>260.3</v>
       </c>
-      <c r="O8" s="24">
+      <c r="O8" s="21">
         <v>202.9</v>
       </c>
-      <c r="P8" s="24">
+      <c r="P8" s="21">
         <v>200.5</v>
       </c>
-      <c r="Q8" s="24">
+      <c r="Q8" s="21">
         <v>196.6</v>
       </c>
-      <c r="R8" s="25">
+      <c r="R8" s="22">
         <v>206.4</v>
       </c>
-      <c r="S8" s="25">
+      <c r="S8" s="22">
         <v>205.5</v>
       </c>
+      <c r="T8" s="22">
+        <v>196.7</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="P9" s="18"/>
+    <row r="9" spans="1:20" ht="36" customHeight="1">
+      <c r="A9" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="15"/>
+      <c r="N9" s="15"/>
+      <c r="O9" s="15"/>
+      <c r="P9" s="15"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
+    <row r="10" spans="1:20">
+      <c r="B10" s="17"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
+    <row r="11" spans="1:20">
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
